--- a/biology/Zoologie/Catenulida/Catenulida.xlsx
+++ b/biology/Zoologie/Catenulida/Catenulida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Catenulida sont un sous-embranchement des Plathelminthes ou vers plats. Ils contiennent des vers autrefois classés comme turbellariés.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois classés comme ordre de la classe des Turbellaria, puis comme classe des Plathelminthes, les Catenulida sont maintenant, d'après  World Register of Marine Species                               (3 novembre 2023)[1], un sous-embranchement ou sous-phylum de l'embranchement (ou phylum) des Plathelminthes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois classés comme ordre de la classe des Turbellaria, puis comme classe des Plathelminthes, les Catenulida sont maintenant, d'après  World Register of Marine Species                               (3 novembre 2023), un sous-embranchement ou sous-phylum de l'embranchement (ou phylum) des Plathelminthes.
 Les Catenulida constituent un sous-embranchement frère du sous-embranchement des Rhabditophora parmi les Plathelminthes.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des vers plats avec des cellules épidermiques non ciliées, et une seule protonéphridie.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (7 fév. 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (7 fév. 2017) :
 famille Catenulidae Graff, 1905
 famille Chordariidae Marcus, 1945
 famille Retronectidae Sterrer &amp; Rieger, 1974
@@ -609,9 +627,11 @@
           <t>Vision phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Turbellarian Taxonomic Database, Version 2.0,.
 </t>
         </is>
       </c>
